--- a/Project.xlsx
+++ b/Project.xlsx
@@ -4,25 +4,103 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Definitions" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Evidencias" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>Definition</t>
-  </si>
-  <si>
-    <t>Olá</t>
-  </si>
-  <si>
-    <t>Mundo</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Quantidade</t>
+  </si>
+  <si>
+    <t>Notas</t>
+  </si>
+  <si>
+    <t>Profundidade</t>
+  </si>
+  <si>
+    <t>Solo</t>
+  </si>
+  <si>
+    <t>Id do Ponto</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Status do Ponto</t>
+  </si>
+  <si>
+    <t>Usuário que criou</t>
+  </si>
+  <si>
+    <t>Usuário que atualizou</t>
+  </si>
+  <si>
+    <t>Data de criação</t>
+  </si>
+  <si>
+    <t>Data de atualização</t>
+  </si>
+  <si>
+    <t>"5dc8ab4637163e00178bd0e6"</t>
+  </si>
+  <si>
+    <t>Em aberto</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>some fixed notes...</t>
+  </si>
+  <si>
+    <t>Superfície</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>"5d16de7d8db2ea00174a916a"</t>
+  </si>
+  <si>
+    <t>"5dc8aae737163e00178bd0e4"</t>
+  </si>
+  <si>
+    <t>20-30cm</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>"5dc3065937a84c0017f7bd1a"</t>
+  </si>
+  <si>
+    <t>"5dcaaf0d50f17900176dff76"</t>
+  </si>
+  <si>
+    <t>10-20cm</t>
+  </si>
+  <si>
+    <t>"5dc75f42ea7b0500177d4381"</t>
   </si>
 </sst>
 </file>
@@ -58,8 +136,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,27 +478,234 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:O5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="2" width="120" customWidth="1"/>
+    <col min="2" max="15" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>16</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>-45.9776900762719</v>
+      </c>
+      <c r="J2">
+        <v>-20.7172729395149</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="1">
+        <v>43775.04038826389</v>
+      </c>
+      <c r="O2" s="1">
+        <v>43780.01979832176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>-46.0381655465671</v>
+      </c>
+      <c r="J3">
+        <v>-20.6904377923282</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="1">
+        <v>43775.04038831018</v>
+      </c>
+      <c r="O3" s="1">
+        <v>43780.01895534722</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4">
+        <v>-46.0478527038117</v>
+      </c>
+      <c r="J4">
+        <v>-20.6878642170664</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N4" s="1">
+        <v>43775.040388333335</v>
+      </c>
+      <c r="O4" s="1">
+        <v>43775.73864273148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5">
+        <v>-46.0308166248642</v>
+      </c>
+      <c r="J5">
+        <v>-20.6865044291569</v>
+      </c>
+      <c r="K5" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="1">
+        <v>43775.0403883449</v>
+      </c>
+      <c r="O5" s="1">
+        <v>43781.54820726852</v>
       </c>
     </row>
   </sheetData>

--- a/Project.xlsx
+++ b/Project.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
-  <si>
-    <t>Id</t>
-  </si>
-  <si>
-    <t>Status</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+  <si>
+    <t>Id da Evidência</t>
+  </si>
+  <si>
+    <t>Status da Evidência</t>
   </si>
   <si>
     <t>Tipo</t>
@@ -37,15 +37,24 @@
     <t>Id do Ponto</t>
   </si>
   <si>
-    <t>Longitude</t>
-  </si>
-  <si>
-    <t>Latitude</t>
+    <t>Nome do Ponto</t>
+  </si>
+  <si>
+    <t>Longitude do Ponto</t>
+  </si>
+  <si>
+    <t>Latitude do Ponto</t>
   </si>
   <si>
     <t>Status do Ponto</t>
   </si>
   <si>
+    <t>Id do Projeto</t>
+  </si>
+  <si>
+    <t>Nome do Projeto</t>
+  </si>
+  <si>
     <t>Usuário que criou</t>
   </si>
   <si>
@@ -76,10 +85,22 @@
     <t>Água</t>
   </si>
   <si>
+    <t>"5dc21aa103e32600176a26e6"</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
     <t>Realizado</t>
   </si>
   <si>
-    <t>"5d16de7d8db2ea00174a916a"</t>
+    <t>"5dbf916a598a81001721843c"</t>
+  </si>
+  <si>
+    <t>Teste</t>
+  </si>
+  <si>
+    <t>Rodrigo Mota</t>
   </si>
   <si>
     <t>"5dc8aae737163e00178bd0e4"</t>
@@ -91,16 +112,34 @@
     <t>Rocha</t>
   </si>
   <si>
+    <t>"5dc21aa103e32600176a26ed"</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
     <t>"5dc3065937a84c0017f7bd1a"</t>
   </si>
   <si>
+    <t>"5dc21aa103e32600176a26f0"</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
     <t>"5dcaaf0d50f17900176dff76"</t>
   </si>
   <si>
     <t>10-20cm</t>
   </si>
   <si>
-    <t>"5dc75f42ea7b0500177d4381"</t>
+    <t>"5dc21aa103e32600176a26f2"</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>Gustavo</t>
   </si>
 </sst>
 </file>
@@ -478,14 +517,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O5"/>
+  <dimension ref="A1:R5"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="1" width="36" customWidth="1"/>
-    <col min="2" max="15" width="50" customWidth="1"/>
+    <col min="1" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="80" customWidth="1"/>
+    <col min="6" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="50" customWidth="1"/>
+    <col min="10" max="10" width="320" customWidth="1"/>
+    <col min="11" max="18" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -531,180 +575,237 @@
       <c r="O1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>-45.9776900762719</v>
+      </c>
+      <c r="K2">
+        <v>-20.7172729395149</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>43775.04038826389</v>
+      </c>
+      <c r="R2" s="1">
+        <v>43780.01979832176</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
+      <c r="C3" t="s">
         <v>20</v>
-      </c>
-      <c r="I2">
-        <v>-45.9776900762719</v>
-      </c>
-      <c r="J2">
-        <v>-20.7172729395149</v>
-      </c>
-      <c r="K2" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1">
-        <v>43775.04038826389</v>
-      </c>
-      <c r="O2" s="1">
-        <v>43780.01979832176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
       </c>
       <c r="D3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3">
+        <v>32</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J3">
         <v>-46.0381655465671</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>-20.6904377923282</v>
       </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="1">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1">
         <v>43775.04038831018</v>
       </c>
-      <c r="O3" s="1">
+      <c r="R3" s="1">
         <v>43780.01895534722</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4">
+        <v>-46.0478527038117</v>
+      </c>
+      <c r="K4">
+        <v>-20.6878642170664</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>43775.040388333335</v>
+      </c>
+      <c r="R4" s="1">
+        <v>43775.73864273148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
         <v>19</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="I4">
-        <v>-46.0478527038117</v>
-      </c>
-      <c r="J4">
-        <v>-20.6878642170664</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="1">
-        <v>43775.040388333335</v>
-      </c>
-      <c r="O4" s="1">
-        <v>43775.73864273148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5">
+        <v>-46.0308166248642</v>
+      </c>
+      <c r="K5">
+        <v>-20.6865044291569</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5">
-        <v>-46.0308166248642</v>
-      </c>
-      <c r="J5">
-        <v>-20.6865044291569</v>
-      </c>
-      <c r="K5" t="s">
-        <v>21</v>
-      </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
+      <c r="O5" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="1">
+      <c r="P5" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q5" s="1">
         <v>43775.0403883449</v>
       </c>
-      <c r="O5" s="1">
+      <c r="R5" s="1">
         <v>43781.54820726852</v>
       </c>
     </row>

--- a/Project.xlsx
+++ b/Project.xlsx
@@ -11,14 +11,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Id da Evidência</t>
   </si>
   <si>
-    <t>Status da Evidência</t>
-  </si>
-  <si>
     <t>Tipo</t>
   </si>
   <si>
@@ -65,81 +62,6 @@
   </si>
   <si>
     <t>Data de atualização</t>
-  </si>
-  <si>
-    <t>"5dc8ab4637163e00178bd0e6"</t>
-  </si>
-  <si>
-    <t>Em aberto</t>
-  </si>
-  <si>
-    <t>Madeira</t>
-  </si>
-  <si>
-    <t>some fixed notes...</t>
-  </si>
-  <si>
-    <t>Superfície</t>
-  </si>
-  <si>
-    <t>Água</t>
-  </si>
-  <si>
-    <t>"5dc21aa103e32600176a26e6"</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>Realizado</t>
-  </si>
-  <si>
-    <t>"5dbf916a598a81001721843c"</t>
-  </si>
-  <si>
-    <t>Teste</t>
-  </si>
-  <si>
-    <t>Rodrigo Mota</t>
-  </si>
-  <si>
-    <t>"5dc8aae737163e00178bd0e4"</t>
-  </si>
-  <si>
-    <t>20-30cm</t>
-  </si>
-  <si>
-    <t>Rocha</t>
-  </si>
-  <si>
-    <t>"5dc21aa103e32600176a26ed"</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>"5dc3065937a84c0017f7bd1a"</t>
-  </si>
-  <si>
-    <t>"5dc21aa103e32600176a26f0"</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>"5dcaaf0d50f17900176dff76"</t>
-  </si>
-  <si>
-    <t>10-20cm</t>
-  </si>
-  <si>
-    <t>"5dc21aa103e32600176a26f2"</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>Gustavo</t>
   </si>
 </sst>
 </file>
@@ -175,9 +97,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -517,19 +438,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:Q1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="3" width="30" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="80" customWidth="1"/>
-    <col min="6" max="8" width="30" customWidth="1"/>
-    <col min="9" max="9" width="50" customWidth="1"/>
-    <col min="10" max="10" width="320" customWidth="1"/>
-    <col min="11" max="18" width="30" customWidth="1"/>
+    <col min="1" max="2" width="30" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="80" customWidth="1"/>
+    <col min="5" max="7" width="30" customWidth="1"/>
+    <col min="8" max="8" width="50" customWidth="1"/>
+    <col min="9" max="9" width="320" customWidth="1"/>
+    <col min="10" max="17" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,233 +501,6 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
-      </c>
-      <c r="R1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2">
-        <v>-45.9776900762719</v>
-      </c>
-      <c r="K2">
-        <v>-20.7172729395149</v>
-      </c>
-      <c r="L2" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>43775.04038826389</v>
-      </c>
-      <c r="R2" s="1">
-        <v>43780.01979832176</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3">
-        <v>-46.0381655465671</v>
-      </c>
-      <c r="K3">
-        <v>-20.6904377923282</v>
-      </c>
-      <c r="L3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M3" t="s">
-        <v>27</v>
-      </c>
-      <c r="N3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>43775.04038831018</v>
-      </c>
-      <c r="R3" s="1">
-        <v>43780.01895534722</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J4">
-        <v>-46.0478527038117</v>
-      </c>
-      <c r="K4">
-        <v>-20.6878642170664</v>
-      </c>
-      <c r="L4" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" t="s">
-        <v>27</v>
-      </c>
-      <c r="N4" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>43775.040388333335</v>
-      </c>
-      <c r="R4" s="1">
-        <v>43775.73864273148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>21</v>
-      </c>
-      <c r="F5" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5">
-        <v>-46.0308166248642</v>
-      </c>
-      <c r="K5">
-        <v>-20.6865044291569</v>
-      </c>
-      <c r="L5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P5" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>43775.0403883449</v>
-      </c>
-      <c r="R5" s="1">
-        <v>43781.54820726852</v>
       </c>
     </row>
   </sheetData>

--- a/Project.xlsx
+++ b/Project.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="132">
   <si>
     <t>Id da Evidência</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Solo</t>
   </si>
   <si>
+    <t>Imagem</t>
+  </si>
+  <si>
     <t>Id do Ponto</t>
   </si>
   <si>
@@ -62,6 +65,348 @@
   </si>
   <si>
     <t>Data de atualização</t>
+  </si>
+  <si>
+    <t>"5dd9c56ae643be00171f4b2b"</t>
+  </si>
+  <si>
+    <t>Louça</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Superfície</t>
+  </si>
+  <si>
+    <t>Água</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/03a119faefc9ff22bb8bd1d0d96b9364-image-b3daba88-b383-4fdd-9ab7-484c9802f0b2.jpg</t>
+  </si>
+  <si>
+    <t>"5dd985ff160faa0017f64619"</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Realizado</t>
+  </si>
+  <si>
+    <t>"5dd97f59160faa0017f64615"</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Rodrigo Mota</t>
+  </si>
+  <si>
+    <t>"5dd9c57be643be00171f4b2d"</t>
+  </si>
+  <si>
+    <t>Madeira</t>
+  </si>
+  <si>
+    <t>0-10cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/d539da42ecd926a18be1cad79f64541d-image-8d430be2-3cd6-4784-8d8a-34e6b7615830.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9c583e643be00171f4b2f"</t>
+  </si>
+  <si>
+    <t>Vidro</t>
+  </si>
+  <si>
+    <t>10-20cm</t>
+  </si>
+  <si>
+    <t>Rocha</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/fe404d886faa4bb8d8f4c84ea4d1171a-image-14479d68-90b9-4b12-aa77-f62554decdd7.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9c597e643be00171f4b31"</t>
+  </si>
+  <si>
+    <t>Osso</t>
+  </si>
+  <si>
+    <t>20-30cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/a80172e55634d06652013f596f769a5b-image-96afe8e6-b7b8-4cd5-90b6-02831e8005c4.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9c5a6e643be00171f4b33"</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>30-40cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/2c4129f58212ea2546faa12f10cb294a-image-f4ef322d-04b3-4a78-8a84-e4b97f8551f6.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9c5b4e643be00171f4b35"</t>
+  </si>
+  <si>
+    <t>Cerâmica</t>
+  </si>
+  <si>
+    <t>40-50cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/71c004b9839a101fa5d188ce7d99b40b-image-11b0d7cc-9d5a-4fdf-bfa6-005076a4b192.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9c5c9e643be00171f4b39"</t>
+  </si>
+  <si>
+    <t>Lítico</t>
+  </si>
+  <si>
+    <t>70-80cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/4125c5996cace566d92ce119cffc7a05-image-75d91fca-8c99-457e-bc06-ee5ff40f515d.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9c5d7e643be00171f4b3b"</t>
+  </si>
+  <si>
+    <t>Malacológico</t>
+  </si>
+  <si>
+    <t>80-90cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/f650bf36c16bf5bbd15b2db65851d267-image-fa280fe7-6b70-4567-b07e-8512b6859f2a.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9c5e5e643be00171f4b3d"</t>
+  </si>
+  <si>
+    <t>Outros</t>
+  </si>
+  <si>
+    <t>90-100cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/5c4761acbf80bde3080f583696a7a5a9-image-d06fe125-7713-48ed-aa10-845a7bebadbe.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9c5f6e643be00171f4b3f"</t>
+  </si>
+  <si>
+    <t>100-110cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/7c8af6a84146d96da7574b32479c5805-image-72f8f425-3eaf-48e9-930b-4b22828acb79.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cc7de643be00171f4b9f"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/4de0a04f20bef05f2f48c3eb4ccaae01-image-7b5532b2-d8ea-4662-98bf-d9e3cf7d4ad0.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cc9ae643be00171f4ba1"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/d596b15204102a86909628ec7eb4178e-image-0e954b91-ed0b-4088-9c7f-c565bae6a003.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9ccb1e643be00171f4ba3"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/609b1357cfa3293ba54da7903e886bb5-image-b9d07f9e-c090-488b-88d8-8bdaddd68526.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cccbe643be00171f4ba5"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/250a3bf6bddd540b8c179d39d2cd8da8-image-fb256504-c8f4-4092-8900-7e63e0a43063.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9ccebe643be00171f4ba7"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/6ed287c01eaa9fc54024cf3a5baf0004-image-465d85f7-d899-43db-97ac-aa386e0d2097.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cd0be643be00171f4ba9"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/25f246636e4ce67565e9304e0426c995-image-1f8dca3c-943b-4972-8870-7ecb2073e810.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cd27e643be00171f4bab"</t>
+  </si>
+  <si>
+    <t>Amostra de carvão</t>
+  </si>
+  <si>
+    <t>50-60cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/08220d5c8e2dc32ee5e78bb6608d10f1-image-b8ef7223-e342-4eab-95f5-b24fc8c783fc.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cd45e643be00171f4bad"</t>
+  </si>
+  <si>
+    <t>Deriv. de Plástico e Látex</t>
+  </si>
+  <si>
+    <t>60-70cm</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/836948ea1071bbda7e3bb065252a8dfb-image-cdb85678-e2c0-45d5-ae7b-c6f493856c48.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cd70e643be00171f4baf"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/7940b7f8b8adc6ed73d53f77237a04d1-image-944b4b0e-d3ba-4d2c-bfa3-4c048ddf56d7.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cd8be643be00171f4bb1"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/e5726f7f3500c0ff415075696fadf4df-image-05a5f5ca-547f-4c47-8825-dab82b395ad5.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cda6e643be00171f4bb3"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/9730eba4f88616aff42ef088b639b68b-image-0d6ee2eb-e786-4553-b8a2-1efe507cc2d0.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9cdbbe643be00171f4bb5"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/01452edcdf75cdf3239814142eaf44e3-image-7d0f98a2-ac7a-4a25-abe6-a52781a8bb94.jpg</t>
+  </si>
+  <si>
+    <t>"5dd990e5160faa0017f6463b"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/85e573e4b4da453d5310a686279af9cb-image-f1e7395d-8cff-46ff-93ba-4be175ba779d.jpg</t>
+  </si>
+  <si>
+    <t>"5dd985ff160faa0017f6461a"</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/4832eaa4aca35fa2b68eb4e3ca45b79a-image-898d01ce-bac0-498b-9189-d997e2a0f2ad.jpg</t>
+  </si>
+  <si>
+    <t>"5dd99116160faa0017f6463e"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/4d309ab77693323cb4dd7c6560c15ac9-image-d24e6cb3-8e99-423d-82ee-491cf6edabf3.jpg</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/d73604f4e8564c9b87a1cb22a84a7ae3-image-1d523505-d67c-4e8b-a8a5-39bb86f01818.jpg</t>
+  </si>
+  <si>
+    <t>"5dd98c3c160faa0017f64631"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/a65a350b64d6790cc7322fda8fc6d50f-image-9dc00d44-b116-402c-b90c-2d4d65f70c0d.jpg</t>
+  </si>
+  <si>
+    <t>"5dd985ff160faa0017f6461b"</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/59ac677d65d7aa10bf8d7da3f4e23a7d-image-a7e6015b-763e-42a4-aca3-9d12eae3c938.jpg</t>
+  </si>
+  <si>
+    <t>"5dd98c6f160faa0017f64633"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/26bb6571caf50c5f3578d06e99032342-image-3c37fffb-c66e-4822-9455-8ddd7ff93796.jpg</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/aa1e5e013ed15514996aae6b010f4e09-image-3c37fffb-c66e-4822-9455-8ddd7ff93796.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9913a160faa0017f64641"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/2412a987368ccaff701d7d311595edfc-image-9b6e55f1-1e5f-418c-a799-2123089dca71.jpg</t>
+  </si>
+  <si>
+    <t>"5dd985ff160faa0017f6461c"</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/e7369f9b2ad35fe43a7d5b616b5d4f13-image-057a1f27-dc73-4b59-9f3b-6dafd1180f6f.jpg</t>
+  </si>
+  <si>
+    <t>"5dd9915f160faa0017f64644"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/a5256a899230871c16cd77e5a92af7e1-image-59440f11-12fb-4a76-8a49-8fc6f493bee3.jpg</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/eb813be30475441827333ece9c2b2040-image-be06e30e-0b9b-4050-89e4-b4eb2618ac38.jpg</t>
+  </si>
+  <si>
+    <t>"5dd98a8a160faa0017f64628"</t>
+  </si>
+  <si>
+    <t>Isbisbibsiisb</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/08d022b798c1b648bf0cb94a79570000-image-1deae681-856f-4d2f-948c-8288fc9e73fd.jpg</t>
+  </si>
+  <si>
+    <t>"5dd985ff160faa0017f64620"</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/c1fe81fa952d00778fd941b21a7e85b3-image-1deae681-856f-4d2f-948c-8288fc9e73fd.jpg</t>
+  </si>
+  <si>
+    <t>"5dd98abc160faa0017f6462c"</t>
+  </si>
+  <si>
+    <t>Bjabiaab</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/e2bbcd91124725ad8a881ef14fc3b8b1-image-8773e5d6-e1a4-489b-8f9a-e9d782f3d121.jpg</t>
+  </si>
+  <si>
+    <t>"5dd987c3160faa0017f64623"</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/ffd905133b43ba58f8573f689ae822c1-image-b96e1198-7422-4a4f-bb03-f8a30d5443d1.jpg</t>
+  </si>
+  <si>
+    <t>"5dd985ff160faa0017f64621"</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>https://situs.s3.amazonaws.com/d0f0efb2c6656df90a8371fd0dab8da8-image-b96e1198-7422-4a4f-bb03-f8a30d5443d1.jpg</t>
   </si>
 </sst>
 </file>
@@ -97,8 +442,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,19 +784,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:R40"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="30" customWidth="1"/>
     <col min="3" max="3" width="15" customWidth="1"/>
     <col min="4" max="4" width="80" customWidth="1"/>
-    <col min="5" max="7" width="30" customWidth="1"/>
-    <col min="8" max="8" width="50" customWidth="1"/>
-    <col min="9" max="9" width="320" customWidth="1"/>
-    <col min="10" max="17" width="30" customWidth="1"/>
+    <col min="5" max="6" width="30" customWidth="1"/>
+    <col min="7" max="7" width="50" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="9" max="9" width="50" customWidth="1"/>
+    <col min="10" max="18" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -501,6 +848,2193 @@
       </c>
       <c r="Q1" t="s">
         <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K2">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R2" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K3">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" t="s">
+        <v>29</v>
+      </c>
+      <c r="P3" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R3" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K4">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L4" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" t="s">
+        <v>28</v>
+      </c>
+      <c r="O4" t="s">
+        <v>29</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R4" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K5">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L5" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" t="s">
+        <v>27</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R5" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K6">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L6" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R6" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K7">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" t="s">
+        <v>29</v>
+      </c>
+      <c r="P7" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R7" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K8">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P8" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R8" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" t="s">
+        <v>22</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J9">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K9">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P9" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R9" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>61</v>
+      </c>
+      <c r="F10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+      <c r="J10">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K10">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M10" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" t="s">
+        <v>28</v>
+      </c>
+      <c r="O10" t="s">
+        <v>29</v>
+      </c>
+      <c r="P10" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R10" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K11">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L11" t="s">
+        <v>26</v>
+      </c>
+      <c r="M11" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" t="s">
+        <v>28</v>
+      </c>
+      <c r="O11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R11" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J12">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K12">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L12" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" t="s">
+        <v>27</v>
+      </c>
+      <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R12" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I13" t="s">
+        <v>25</v>
+      </c>
+      <c r="J13">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K13">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L13" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" t="s">
+        <v>27</v>
+      </c>
+      <c r="N13" t="s">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R13" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" t="s">
+        <v>22</v>
+      </c>
+      <c r="G14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" t="s">
+        <v>25</v>
+      </c>
+      <c r="J14">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K14">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L14" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+      <c r="O14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P14" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R14" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" t="s">
+        <v>22</v>
+      </c>
+      <c r="G15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J15">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K15">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L15" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" t="s">
+        <v>28</v>
+      </c>
+      <c r="O15" t="s">
+        <v>29</v>
+      </c>
+      <c r="P15" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R15" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K16">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>29</v>
+      </c>
+      <c r="P16" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R16" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" t="s">
+        <v>37</v>
+      </c>
+      <c r="G17" t="s">
+        <v>77</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" t="s">
+        <v>25</v>
+      </c>
+      <c r="J17">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K17">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L17" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s">
+        <v>28</v>
+      </c>
+      <c r="O17" t="s">
+        <v>29</v>
+      </c>
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R17" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+      <c r="J18">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K18">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L18" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s">
+        <v>28</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+      <c r="P18" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R18" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G19" t="s">
+        <v>85</v>
+      </c>
+      <c r="H19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J19">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K19">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L19" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" t="s">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s">
+        <v>28</v>
+      </c>
+      <c r="O19" t="s">
+        <v>29</v>
+      </c>
+      <c r="P19" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R19" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" t="s">
+        <v>25</v>
+      </c>
+      <c r="J20">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K20">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L20" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" t="s">
+        <v>28</v>
+      </c>
+      <c r="O20" t="s">
+        <v>29</v>
+      </c>
+      <c r="P20" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R20" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" t="s">
+        <v>89</v>
+      </c>
+      <c r="H21" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" t="s">
+        <v>25</v>
+      </c>
+      <c r="J21">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K21">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L21" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N21" t="s">
+        <v>28</v>
+      </c>
+      <c r="O21" t="s">
+        <v>29</v>
+      </c>
+      <c r="P21" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R21" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" t="s">
+        <v>61</v>
+      </c>
+      <c r="F22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" t="s">
+        <v>91</v>
+      </c>
+      <c r="H22" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>25</v>
+      </c>
+      <c r="J22">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K22">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M22" t="s">
+        <v>27</v>
+      </c>
+      <c r="N22" t="s">
+        <v>28</v>
+      </c>
+      <c r="O22" t="s">
+        <v>29</v>
+      </c>
+      <c r="P22" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R22" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E23" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" t="s">
+        <v>37</v>
+      </c>
+      <c r="G23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" t="s">
+        <v>25</v>
+      </c>
+      <c r="J23">
+        <v>-51.227644085884094</v>
+      </c>
+      <c r="K23">
+        <v>-30.06453958246079</v>
+      </c>
+      <c r="L23" t="s">
+        <v>26</v>
+      </c>
+      <c r="M23" t="s">
+        <v>27</v>
+      </c>
+      <c r="N23" t="s">
+        <v>28</v>
+      </c>
+      <c r="O23" t="s">
+        <v>29</v>
+      </c>
+      <c r="P23" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>43792.804443125</v>
+      </c>
+      <c r="R23" s="1">
+        <v>43793.012380555556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" t="s">
+        <v>95</v>
+      </c>
+      <c r="H24" t="s">
+        <v>96</v>
+      </c>
+      <c r="I24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J24">
+        <v>-51.226844787597656</v>
+      </c>
+      <c r="K24">
+        <v>-30.064418872238473</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" t="s">
+        <v>28</v>
+      </c>
+      <c r="O24" t="s">
+        <v>29</v>
+      </c>
+      <c r="P24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>43792.80444313657</v>
+      </c>
+      <c r="R24" s="1">
+        <v>43792.832767314816</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>97</v>
+      </c>
+      <c r="J25">
+        <v>-51.226844787597656</v>
+      </c>
+      <c r="K25">
+        <v>-30.064418872238473</v>
+      </c>
+      <c r="L25" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" t="s">
+        <v>29</v>
+      </c>
+      <c r="P25" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>43792.80444313657</v>
+      </c>
+      <c r="R25" s="1">
+        <v>43792.832767314816</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>45</v>
+      </c>
+      <c r="F26" t="s">
+        <v>37</v>
+      </c>
+      <c r="G26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" t="s">
+        <v>97</v>
+      </c>
+      <c r="J26">
+        <v>-51.226844787597656</v>
+      </c>
+      <c r="K26">
+        <v>-30.064418872238473</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
+      </c>
+      <c r="N26" t="s">
+        <v>28</v>
+      </c>
+      <c r="O26" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>43792.80444313657</v>
+      </c>
+      <c r="R26" s="1">
+        <v>43792.832767314816</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" t="s">
+        <v>96</v>
+      </c>
+      <c r="I27" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27">
+        <v>-51.226844787597656</v>
+      </c>
+      <c r="K27">
+        <v>-30.064418872238473</v>
+      </c>
+      <c r="L27" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" t="s">
+        <v>28</v>
+      </c>
+      <c r="O27" t="s">
+        <v>29</v>
+      </c>
+      <c r="P27" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>43792.80444313657</v>
+      </c>
+      <c r="R27" s="1">
+        <v>43792.832767314816</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" t="s">
+        <v>104</v>
+      </c>
+      <c r="I28" t="s">
+        <v>105</v>
+      </c>
+      <c r="J28">
+        <v>-51.2262761592865</v>
+      </c>
+      <c r="K28">
+        <v>-30.0648831415186</v>
+      </c>
+      <c r="L28" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" t="s">
+        <v>27</v>
+      </c>
+      <c r="N28" t="s">
+        <v>28</v>
+      </c>
+      <c r="O28" t="s">
+        <v>29</v>
+      </c>
+      <c r="P28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>43792.80444315972</v>
+      </c>
+      <c r="R28" s="1">
+        <v>43792.82074048611</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B29" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" t="s">
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" t="s">
+        <v>104</v>
+      </c>
+      <c r="I29" t="s">
+        <v>105</v>
+      </c>
+      <c r="J29">
+        <v>-51.2262761592865</v>
+      </c>
+      <c r="K29">
+        <v>-30.0648831415186</v>
+      </c>
+      <c r="L29" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" t="s">
+        <v>27</v>
+      </c>
+      <c r="N29" t="s">
+        <v>28</v>
+      </c>
+      <c r="O29" t="s">
+        <v>29</v>
+      </c>
+      <c r="P29" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>43792.80444315972</v>
+      </c>
+      <c r="R29" s="1">
+        <v>43792.82074048611</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G30" t="s">
+        <v>108</v>
+      </c>
+      <c r="H30" t="s">
+        <v>104</v>
+      </c>
+      <c r="I30" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30">
+        <v>-51.2262761592865</v>
+      </c>
+      <c r="K30">
+        <v>-30.0648831415186</v>
+      </c>
+      <c r="L30" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N30" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" t="s">
+        <v>29</v>
+      </c>
+      <c r="P30" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>43792.80444315972</v>
+      </c>
+      <c r="R30" s="1">
+        <v>43792.82074048611</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" t="s">
+        <v>105</v>
+      </c>
+      <c r="J31">
+        <v>-51.2262761592865</v>
+      </c>
+      <c r="K31">
+        <v>-30.0648831415186</v>
+      </c>
+      <c r="L31" t="s">
+        <v>26</v>
+      </c>
+      <c r="M31" t="s">
+        <v>27</v>
+      </c>
+      <c r="N31" t="s">
+        <v>28</v>
+      </c>
+      <c r="O31" t="s">
+        <v>29</v>
+      </c>
+      <c r="P31" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>43792.80444315972</v>
+      </c>
+      <c r="R31" s="1">
+        <v>43792.82074048611</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>36</v>
+      </c>
+      <c r="F32" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" t="s">
+        <v>112</v>
+      </c>
+      <c r="I32" t="s">
+        <v>113</v>
+      </c>
+      <c r="J32">
+        <v>-51.2263298034668</v>
+      </c>
+      <c r="K32">
+        <v>-30.06536133660051</v>
+      </c>
+      <c r="L32" t="s">
+        <v>26</v>
+      </c>
+      <c r="M32" t="s">
+        <v>27</v>
+      </c>
+      <c r="N32" t="s">
+        <v>28</v>
+      </c>
+      <c r="O32" t="s">
+        <v>29</v>
+      </c>
+      <c r="P32" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>43792.80444317129</v>
+      </c>
+      <c r="R32" s="1">
+        <v>43792.834274513894</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" t="s">
+        <v>112</v>
+      </c>
+      <c r="I33" t="s">
+        <v>113</v>
+      </c>
+      <c r="J33">
+        <v>-51.2263298034668</v>
+      </c>
+      <c r="K33">
+        <v>-30.06536133660051</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" t="s">
+        <v>28</v>
+      </c>
+      <c r="O33" t="s">
+        <v>29</v>
+      </c>
+      <c r="P33" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>43792.80444317129</v>
+      </c>
+      <c r="R33" s="1">
+        <v>43792.834274513894</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H34" t="s">
+        <v>112</v>
+      </c>
+      <c r="I34" t="s">
+        <v>113</v>
+      </c>
+      <c r="J34">
+        <v>-51.2263298034668</v>
+      </c>
+      <c r="K34">
+        <v>-30.06536133660051</v>
+      </c>
+      <c r="L34" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" t="s">
+        <v>27</v>
+      </c>
+      <c r="N34" t="s">
+        <v>28</v>
+      </c>
+      <c r="O34" t="s">
+        <v>29</v>
+      </c>
+      <c r="P34" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>43792.80444317129</v>
+      </c>
+      <c r="R34" s="1">
+        <v>43792.834274513894</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="E35" t="s">
+        <v>45</v>
+      </c>
+      <c r="F35" t="s">
+        <v>22</v>
+      </c>
+      <c r="G35" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" t="s">
+        <v>112</v>
+      </c>
+      <c r="I35" t="s">
+        <v>113</v>
+      </c>
+      <c r="J35">
+        <v>-51.2263298034668</v>
+      </c>
+      <c r="K35">
+        <v>-30.06536133660051</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" t="s">
+        <v>28</v>
+      </c>
+      <c r="O35" t="s">
+        <v>29</v>
+      </c>
+      <c r="P35" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>43792.80444317129</v>
+      </c>
+      <c r="R35" s="1">
+        <v>43792.834274513894</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>118</v>
+      </c>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" t="s">
+        <v>22</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36" t="s">
+        <v>122</v>
+      </c>
+      <c r="J36">
+        <v>-51.22675895690918</v>
+      </c>
+      <c r="K36">
+        <v>-30.061442854436844</v>
+      </c>
+      <c r="L36" t="s">
+        <v>26</v>
+      </c>
+      <c r="M36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N36" t="s">
+        <v>28</v>
+      </c>
+      <c r="O36" t="s">
+        <v>29</v>
+      </c>
+      <c r="P36" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>43792.804443217596</v>
+      </c>
+      <c r="R36" s="1">
+        <v>43792.81736339121</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>119</v>
+      </c>
+      <c r="E37" t="s">
+        <v>21</v>
+      </c>
+      <c r="F37" t="s">
+        <v>22</v>
+      </c>
+      <c r="G37" t="s">
+        <v>123</v>
+      </c>
+      <c r="H37" t="s">
+        <v>121</v>
+      </c>
+      <c r="I37" t="s">
+        <v>122</v>
+      </c>
+      <c r="J37">
+        <v>-51.22675895690918</v>
+      </c>
+      <c r="K37">
+        <v>-30.061442854436844</v>
+      </c>
+      <c r="L37" t="s">
+        <v>26</v>
+      </c>
+      <c r="M37" t="s">
+        <v>27</v>
+      </c>
+      <c r="N37" t="s">
+        <v>28</v>
+      </c>
+      <c r="O37" t="s">
+        <v>29</v>
+      </c>
+      <c r="P37" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>43792.804443217596</v>
+      </c>
+      <c r="R37" s="1">
+        <v>43792.81736339121</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" t="s">
+        <v>64</v>
+      </c>
+      <c r="F38" t="s">
+        <v>37</v>
+      </c>
+      <c r="G38" t="s">
+        <v>126</v>
+      </c>
+      <c r="H38" t="s">
+        <v>121</v>
+      </c>
+      <c r="I38" t="s">
+        <v>122</v>
+      </c>
+      <c r="J38">
+        <v>-51.22675895690918</v>
+      </c>
+      <c r="K38">
+        <v>-30.061442854436844</v>
+      </c>
+      <c r="L38" t="s">
+        <v>26</v>
+      </c>
+      <c r="M38" t="s">
+        <v>27</v>
+      </c>
+      <c r="N38" t="s">
+        <v>28</v>
+      </c>
+      <c r="O38" t="s">
+        <v>29</v>
+      </c>
+      <c r="P38" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>43792.804443217596</v>
+      </c>
+      <c r="R38" s="1">
+        <v>43792.81736339121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E39" t="s">
+        <v>45</v>
+      </c>
+      <c r="F39" t="s">
+        <v>22</v>
+      </c>
+      <c r="G39" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" t="s">
+        <v>129</v>
+      </c>
+      <c r="I39" t="s">
+        <v>130</v>
+      </c>
+      <c r="J39">
+        <v>-51.222403049468994</v>
+      </c>
+      <c r="K39">
+        <v>-30.064209950351955</v>
+      </c>
+      <c r="L39" t="s">
+        <v>26</v>
+      </c>
+      <c r="M39" t="s">
+        <v>27</v>
+      </c>
+      <c r="N39" t="s">
+        <v>28</v>
+      </c>
+      <c r="O39" t="s">
+        <v>29</v>
+      </c>
+      <c r="P39" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>43792.804443229164</v>
+      </c>
+      <c r="R39" s="1">
+        <v>43792.809174884256</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>127</v>
+      </c>
+      <c r="B40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40" t="s">
+        <v>45</v>
+      </c>
+      <c r="F40" t="s">
+        <v>22</v>
+      </c>
+      <c r="G40" t="s">
+        <v>131</v>
+      </c>
+      <c r="H40" t="s">
+        <v>129</v>
+      </c>
+      <c r="I40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40">
+        <v>-51.222403049468994</v>
+      </c>
+      <c r="K40">
+        <v>-30.064209950351955</v>
+      </c>
+      <c r="L40" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" t="s">
+        <v>27</v>
+      </c>
+      <c r="N40" t="s">
+        <v>28</v>
+      </c>
+      <c r="O40" t="s">
+        <v>29</v>
+      </c>
+      <c r="P40" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>43792.804443229164</v>
+      </c>
+      <c r="R40" s="1">
+        <v>43792.809174884256</v>
       </c>
     </row>
   </sheetData>
